--- a/key.xlsx
+++ b/key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0C4554-D66B-4215-981F-584D0788B244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E8ADDB-5EB0-4C6D-A6D9-353B53239EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42E5B6E4-6B5E-43F1-83AD-00E76D3338A8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="228">
   <si>
     <t>1. safaricom files contain the below fields . Relevant columns for reporting in the 2nd column of the table</t>
   </si>
@@ -708,6 +708,21 @@
   </si>
   <si>
     <t>KITENGELA OBC MALL</t>
+  </si>
+  <si>
+    <t>Kitengela CBD</t>
+  </si>
+  <si>
+    <t>KITENGELA OBC</t>
+  </si>
+  <si>
+    <t>Quick Mart Nakuru State Hse</t>
+  </si>
+  <si>
+    <t>STATEHOUSE-NAKURU</t>
+  </si>
+  <si>
+    <t>NAKURU STATE HOUSE</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CFE9D2-2FEC-492B-9E7C-039CD064DA0B}">
-  <dimension ref="A2:F228"/>
+  <dimension ref="A2:F230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3039,7 +3054,7 @@
         <v>221</v>
       </c>
       <c r="B226" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -3055,7 +3070,23 @@
         <v>222</v>
       </c>
       <c r="B228" t="s">
-        <v>154</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
